--- a/biology/Zoologie/Francis_Hobart_Herrick/Francis_Hobart_Herrick.xlsx
+++ b/biology/Zoologie/Francis_Hobart_Herrick/Francis_Hobart_Herrick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Hobart Herrick est un zoologiste américain, né le 19 novembre 1858 à Woodstock (Vermont) et mort le 11 septembre 1940 à Cleveland.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à la St. Paul’s School de Concord (New Hampshire) puis au Dartmouth College en 1881. Il reçoit son Ph. D. à l’université Johns-Hopkins en 1888.
 Herrick devient alors professeur de biologie à l’université Case Western Reserve, université de recherche privée à Cleveland. Il devient professeur émérite en 1929.
@@ -544,11 +558,13 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1895 : The american Lobster; a study of its habits and development.
-1902 : The home life of wild birds; a new method of the study and photography of birds[1] (G. P. Putnam's Sons, New York, Londres) – réédité en 1905.
-1917 : Audubon the naturalist; a history of his life and time[2] (D. Appleton and Company, New York, Londres).</t>
+1902 : The home life of wild birds; a new method of the study and photography of birds (G. P. Putnam's Sons, New York, Londres) – réédité en 1905.
+1917 : Audubon the naturalist; a history of his life and time (D. Appleton and Company, New York, Londres).</t>
         </is>
       </c>
     </row>
